--- a/data/s_vals/2023/keuchel_dallas.xlsx
+++ b/data/s_vals/2023/keuchel_dallas.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02638223935530792</v>
+        <v>9.318123435519965e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02188399973699395</v>
+        <v>0.0001537489499301437</v>
       </c>
       <c r="D2" t="n">
-        <v>4.554528715529886</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E2" t="n">
-        <v>1.942068315706629</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.544863270328818</v>
+        <v>404.7911355414282</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C3" t="n">
-        <v>8.97116602537098</v>
+        <v>86.29678392075563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>13.17527712392086</v>
+        <v>97.36642546589903</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4798548413538308</v>
+        <v>0.06328177979961902</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0442233800012</v>
+        <v>87981.0709163148</v>
       </c>
       <c r="D4" t="n">
-        <v>29.00119519558975</v>
+        <v>116886.6739907443</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6275714314424</v>
+        <v>198602002.3250627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1528448483872</v>
+        <v>198806870.1332515</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/keuchel_dallas.xlsx
+++ b/data/s_vals/2023/keuchel_dallas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>404.7911355414282</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>97.36642546589903</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>198806870.1332515</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/keuchel_dallas.xlsx
+++ b/data/s_vals/2023/keuchel_dallas.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.318123435519965e-06</v>
+        <v>1.295275857016165e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001537489499301437</v>
+        <v>6.240767534437808e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>157.8057217802531</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E2" t="n">
-        <v>246.9852506941017</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>404.7911355414282</v>
+        <v>1394.357358042979</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C3" t="n">
-        <v>86.29678392075563</v>
+        <v>117.745847958593</v>
       </c>
       <c r="D3" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>97.36642546589903</v>
+        <v>132.9314246588508</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06328177979961902</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C4" t="n">
-        <v>87981.0709163148</v>
+        <v>250555.8564151394</v>
       </c>
       <c r="D4" t="n">
-        <v>116886.6739907443</v>
+        <v>401567.231247708</v>
       </c>
       <c r="E4" t="n">
-        <v>198602002.3250627</v>
+        <v>91228006295.30009</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>198806870.1332515</v>
+        <v>91228658418.43047</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
